--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABDE/15/seed5/result_data_RandomForest.xlsx
@@ -482,13 +482,13 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.279800000000003</v>
+        <v>6.382900000000006</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.718299999999996</v>
+        <v>-6.798199999999996</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>16.10390000000001</v>
+        <v>16.0387</v>
       </c>
     </row>
     <row r="9">
@@ -627,12 +627,12 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>16.34</v>
+        <v>16.3053</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5319</v>
+        <v>-21.61239999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.954899999999997</v>
+        <v>6.861499999999998</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.97800000000001</v>
+        <v>16.9937</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.3822</v>
+        <v>16.4669</v>
       </c>
     </row>
     <row r="16">
@@ -729,7 +729,7 @@
         <v>-7.82</v>
       </c>
       <c r="E17" t="n">
-        <v>16.52930000000002</v>
+        <v>16.49330000000002</v>
       </c>
     </row>
     <row r="18">
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.521200000000002</v>
+        <v>-7.366000000000003</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-7.952799999999999</v>
+        <v>-7.942599999999999</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.063400000000006</v>
+        <v>4.141100000000004</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -882,12 +882,12 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>15.4678</v>
+        <v>15.6384</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.91949999999999</v>
+        <v>-21.6864</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.669900000000004</v>
+        <v>-7.657799999999998</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.155000000000006</v>
+        <v>5.058700000000005</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.32780000000001</v>
+        <v>-21.29050000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>9.130499999999998</v>
+        <v>8.873200000000004</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.03429999999999</v>
+        <v>-19.94819999999999</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.20050000000001</v>
+        <v>16.27870000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.113500000000005</v>
+        <v>9.013699999999998</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.6139</v>
+        <v>-19.4942</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.422000000000001</v>
+        <v>-7.172400000000003</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.499100000000002</v>
+        <v>6.215999999999999</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.4271</v>
+        <v>-21.4492</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.381900000000001</v>
+        <v>-7.439399999999997</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.382800000000002</v>
+        <v>5.296600000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.66049999999999</v>
+        <v>-21.72979999999999</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.61520000000001</v>
+        <v>-22.68830000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.18960000000001</v>
+        <v>-22.24660000000001</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.815899999999996</v>
+        <v>4.738699999999995</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.125699999999998</v>
+        <v>-8.070499999999999</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1528,7 +1528,7 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.476</v>
+        <v>17.3946</v>
       </c>
     </row>
     <row r="65">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.45309999999998</v>
+        <v>-21.55659999999997</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.58389999999998</v>
+        <v>-21.65519999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.96430000000001</v>
+        <v>-21.9796</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-7.795900000000005</v>
+        <v>-7.582000000000005</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>17.74700000000002</v>
+        <v>17.74030000000003</v>
       </c>
     </row>
     <row r="80">
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.144699999999999</v>
+        <v>6.216700000000002</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.70749999999998</v>
+        <v>-21.68269999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>5.7313</v>
+        <v>5.635000000000004</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.682700000000004</v>
+        <v>-8.484600000000002</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.1593</v>
+        <v>-22.13340000000001</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1950,10 +1950,10 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.484399999999999</v>
+        <v>-7.248599999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>18.34600000000002</v>
+        <v>17.26940000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.32730000000002</v>
+        <v>-21.5192</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.451100000000002</v>
+        <v>-6.392399999999998</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.357199999999999</v>
+        <v>-6.552199999999998</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.4322</v>
+        <v>-21.37989999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.5007</v>
+        <v>-7.654800000000003</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.25659999999999</v>
+        <v>-20.19129999999998</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.918899999999999</v>
+        <v>5.627999999999999</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,13 +2165,13 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.383800000000003</v>
+        <v>8.338100000000003</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.060500000000001</v>
+        <v>-7.997500000000005</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
